--- a/UnderDevelopment/research/lynn5buspv.xlsx
+++ b/UnderDevelopment/research/lynn5buspv.xlsx
@@ -7,28 +7,214 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="battery" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="bus" sheetId="2" r:id="rId2"/>
-    <sheet name="static_generator" sheetId="3" r:id="rId3"/>
-    <sheet name="config" sheetId="4" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" r:id="rId5"/>
-    <sheet name="load" sheetId="6" r:id="rId6"/>
-    <sheet name="branch" sheetId="7" r:id="rId7"/>
-    <sheet name="controlled_generator" sheetId="8" r:id="rId8"/>
+    <sheet name="branch" sheetId="3" r:id="rId3"/>
+    <sheet name="load" sheetId="4" r:id="rId4"/>
+    <sheet name="static_generator" sheetId="5" r:id="rId5"/>
+    <sheet name="battery" sheetId="6" r:id="rId6"/>
+    <sheet name="controlled_generator" sheetId="7" r:id="rId7"/>
+    <sheet name="shunt" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>BaseMVA</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Lynn 5Bus grid with PV node</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>is_slack</t>
+  </si>
+  <si>
+    <t>Vnom</t>
+  </si>
+  <si>
+    <t>Vmin</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>Zf</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Bus 1</t>
+  </si>
+  <si>
+    <t>Bus 2</t>
+  </si>
+  <si>
+    <t>Bus 3</t>
+  </si>
+  <si>
+    <t>Bus 4</t>
+  </si>
+  <si>
+    <t>Bus 5</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0j</t>
+  </si>
+  <si>
+    <t>-500.11231457734016</t>
+  </si>
+  <si>
+    <t>-528.6922609517878</t>
+  </si>
+  <si>
+    <t>-835.506230589875</t>
+  </si>
+  <si>
+    <t>-540.3547095930085</t>
+  </si>
+  <si>
+    <t>-132.20951563431106</t>
+  </si>
+  <si>
+    <t>-206.03655407890693</t>
+  </si>
+  <si>
+    <t>59.60710634439533</t>
+  </si>
+  <si>
+    <t>37.42944773451158</t>
+  </si>
+  <si>
+    <t>293.52297409393316</t>
+  </si>
+  <si>
+    <t>63.64631276392157</t>
+  </si>
+  <si>
+    <t>bus_from</t>
+  </si>
+  <si>
+    <t>bus_to</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>mttf</t>
+  </si>
+  <si>
+    <t>mttr</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>tap_module</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>Branch 1</t>
+  </si>
+  <si>
+    <t>Branch 2</t>
+  </si>
+  <si>
+    <t>Branch 3</t>
+  </si>
+  <si>
+    <t>Branch 4</t>
+  </si>
+  <si>
+    <t>Branch 5</t>
+  </si>
+  <si>
+    <t>Branch 6</t>
+  </si>
+  <si>
+    <t>Branch 7</t>
+  </si>
+  <si>
     <t>bus</t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Load1@Bus 2</t>
+  </si>
+  <si>
+    <t>Load1@Bus 3</t>
+  </si>
+  <si>
+    <t>Load1@Bus 5</t>
+  </si>
+  <si>
+    <t>(40+20j)</t>
+  </si>
+  <si>
+    <t>(25+15j)</t>
+  </si>
+  <si>
+    <t>(50+20j)</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -47,163 +233,10 @@
     <t>Qmax</t>
   </si>
   <si>
-    <t>is_enabled</t>
-  </si>
-  <si>
-    <t>is_slack</t>
-  </si>
-  <si>
-    <t>Vnom</t>
-  </si>
-  <si>
-    <t>Vmin</t>
-  </si>
-  <si>
-    <t>Vmax</t>
-  </si>
-  <si>
-    <t>Zf</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Bus 1</t>
-  </si>
-  <si>
-    <t>Bus 2</t>
-  </si>
-  <si>
-    <t>Bus 3</t>
-  </si>
-  <si>
-    <t>Bus 4</t>
-  </si>
-  <si>
-    <t>Bus 5</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0j</t>
-  </si>
-  <si>
-    <t>168.75795599199856</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>577.3333333333334</t>
-  </si>
-  <si>
-    <t>339.1525731951263</t>
-  </si>
-  <si>
-    <t>332.6666666666667</t>
-  </si>
-  <si>
-    <t>666.6666666666666</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>BaseMVA</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Grid</t>
+    <t>gen1@Bus 4</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>(40+20j)</t>
-  </si>
-  <si>
-    <t>(25+15j)</t>
-  </si>
-  <si>
-    <t>(50+20j)</t>
-  </si>
-  <si>
-    <t>bus_from</t>
-  </si>
-  <si>
-    <t>bus_to</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>mttf</t>
-  </si>
-  <si>
-    <t>mttr</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>tap_module</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>Branch 1</t>
-  </si>
-  <si>
-    <t>gen</t>
   </si>
 </sst>
 </file>
@@ -561,36 +594,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -608,31 +656,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -640,28 +688,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -672,28 +720,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
@@ -704,31 +752,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -736,31 +784,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -768,31 +816,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -801,198 +849,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -1002,43 +858,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1046,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1073,7 +929,7 @@
         <v>0.11</v>
       </c>
       <c r="K2">
-        <v>1e-20</v>
+        <v>9.999999999999999e-21</v>
       </c>
       <c r="L2">
         <v>0.02</v>
@@ -1090,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1117,7 +973,7 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>1e-20</v>
+        <v>9.999999999999999e-21</v>
       </c>
       <c r="L3">
         <v>0.03</v>
@@ -1134,13 +990,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1161,7 +1017,7 @@
         <v>0.09</v>
       </c>
       <c r="K4">
-        <v>1e-20</v>
+        <v>9.999999999999999e-21</v>
       </c>
       <c r="L4">
         <v>0.02</v>
@@ -1178,13 +1034,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1205,7 +1061,7 @@
         <v>0.09</v>
       </c>
       <c r="K5">
-        <v>1e-20</v>
+        <v>9.999999999999999e-21</v>
       </c>
       <c r="L5">
         <v>0.02</v>
@@ -1222,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1249,7 +1105,7 @@
         <v>0.08</v>
       </c>
       <c r="K6">
-        <v>1e-20</v>
+        <v>9.999999999999999e-21</v>
       </c>
       <c r="L6">
         <v>0.02</v>
@@ -1266,13 +1122,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1310,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1337,7 +1193,7 @@
         <v>0.09</v>
       </c>
       <c r="K8">
-        <v>1e-20</v>
+        <v>9.999999999999999e-21</v>
       </c>
       <c r="L8">
         <v>0.02</v>
@@ -1347,6 +1203,245 @@
       </c>
       <c r="N8">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>9999</v>
+      </c>
+      <c r="H2">
+        <v>-15</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1356,59 +1451,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>9999</v>
-      </c>
-      <c r="G2">
-        <v>-15</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
